--- a/natmiOut/OldD2/LR-pairs_lrc2p/Fgf9-Fgfr4.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Fgf9-Fgfr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,10 +79,19 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>Fgf9</t>
   </si>
   <si>
     <t>Fgfr4</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -443,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.977168805985946</v>
+        <v>1.3096565</v>
       </c>
       <c r="H2">
-        <v>0.977168805985946</v>
+        <v>2.619313</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.498822476538879</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.3988701096662744</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.343040621923993</v>
+        <v>0.4030655</v>
       </c>
       <c r="N2">
-        <v>0.343040621923993</v>
+        <v>0.8061309999999999</v>
       </c>
       <c r="O2">
-        <v>0.01217833549845951</v>
+        <v>0.01062191174620465</v>
       </c>
       <c r="P2">
-        <v>0.01217833549845951</v>
+        <v>0.01057308397011603</v>
       </c>
       <c r="Q2">
-        <v>0.3352085949301445</v>
+        <v>0.5278773520007499</v>
       </c>
       <c r="R2">
-        <v>0.3352085949301445</v>
+        <v>2.111509408003</v>
       </c>
       <c r="S2">
-        <v>0.01217833549845951</v>
+        <v>0.005298448322819214</v>
       </c>
       <c r="T2">
-        <v>0.01217833549845951</v>
+        <v>0.00421728716267091</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,61 +587,867 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1.3096565</v>
+      </c>
+      <c r="H3">
+        <v>2.619313</v>
+      </c>
+      <c r="I3">
+        <v>0.498822476538879</v>
+      </c>
+      <c r="J3">
+        <v>0.3988701096662744</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M3">
+        <v>0.1070296666666667</v>
+      </c>
+      <c r="N3">
+        <v>0.321089</v>
+      </c>
+      <c r="O3">
+        <v>0.002820533321653765</v>
+      </c>
+      <c r="P3">
+        <v>0.004211351453895939</v>
+      </c>
+      <c r="Q3">
+        <v>0.1401720986428333</v>
+      </c>
+      <c r="R3">
+        <v>0.8410325918570001</v>
+      </c>
+      <c r="S3">
+        <v>0.001406945416667761</v>
+      </c>
+      <c r="T3">
+        <v>0.001679782216258697</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1.3096565</v>
+      </c>
+      <c r="H4">
+        <v>2.619313</v>
+      </c>
+      <c r="I4">
+        <v>0.498822476538879</v>
+      </c>
+      <c r="J4">
+        <v>0.3988701096662744</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.06252866666666666</v>
+      </c>
+      <c r="N4">
+        <v>0.187586</v>
+      </c>
+      <c r="O4">
+        <v>0.001647806569754003</v>
+      </c>
+      <c r="P4">
+        <v>0.002460347672547249</v>
+      </c>
+      <c r="Q4">
+        <v>0.08189107473633332</v>
+      </c>
+      <c r="R4">
+        <v>0.491346448418</v>
+      </c>
+      <c r="S4">
+        <v>0.0008219629539817268</v>
+      </c>
+      <c r="T4">
+        <v>0.0009813591459660843</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1.3096565</v>
+      </c>
+      <c r="H5">
+        <v>2.619313</v>
+      </c>
+      <c r="I5">
+        <v>0.498822476538879</v>
+      </c>
+      <c r="J5">
+        <v>0.3988701096662744</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.1809256666666667</v>
+      </c>
+      <c r="N5">
+        <v>0.542777</v>
+      </c>
+      <c r="O5">
+        <v>0.004767901157396439</v>
+      </c>
+      <c r="P5">
+        <v>0.007118975449458798</v>
+      </c>
+      <c r="Q5">
+        <v>0.2369504753668333</v>
+      </c>
+      <c r="R5">
+        <v>1.421702852201</v>
+      </c>
+      <c r="S5">
+        <v>0.002378336263225079</v>
+      </c>
+      <c r="T5">
+        <v>0.002839546518237146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0.977168805985946</v>
-      </c>
-      <c r="H3">
-        <v>0.977168805985946</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>27.8250634648279</v>
-      </c>
-      <c r="N3">
-        <v>27.8250634648279</v>
-      </c>
-      <c r="O3">
-        <v>0.9878216645015405</v>
-      </c>
-      <c r="P3">
-        <v>0.9878216645015405</v>
-      </c>
-      <c r="Q3">
-        <v>27.18978404240905</v>
-      </c>
-      <c r="R3">
-        <v>27.18978404240905</v>
-      </c>
-      <c r="S3">
-        <v>0.9878216645015405</v>
-      </c>
-      <c r="T3">
-        <v>0.9878216645015405</v>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1.3096565</v>
+      </c>
+      <c r="H6">
+        <v>2.619313</v>
+      </c>
+      <c r="I6">
+        <v>0.498822476538879</v>
+      </c>
+      <c r="J6">
+        <v>0.3988701096662744</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>37.1930565</v>
+      </c>
+      <c r="N6">
+        <v>74.38611299999999</v>
+      </c>
+      <c r="O6">
+        <v>0.9801418472049912</v>
+      </c>
+      <c r="P6">
+        <v>0.9756362414539819</v>
+      </c>
+      <c r="Q6">
+        <v>48.71012820009225</v>
+      </c>
+      <c r="R6">
+        <v>194.840512800369</v>
+      </c>
+      <c r="S6">
+        <v>0.4889167835821852</v>
+      </c>
+      <c r="T6">
+        <v>0.3891521346231415</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.008236666666666666</v>
+      </c>
+      <c r="H7">
+        <v>0.02471</v>
+      </c>
+      <c r="I7">
+        <v>0.003137184800053983</v>
+      </c>
+      <c r="J7">
+        <v>0.003762849422674434</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.4030655</v>
+      </c>
+      <c r="N7">
+        <v>0.8061309999999999</v>
+      </c>
+      <c r="O7">
+        <v>0.01062191174620465</v>
+      </c>
+      <c r="P7">
+        <v>0.01057308397011603</v>
+      </c>
+      <c r="Q7">
+        <v>0.003319916168333333</v>
+      </c>
+      <c r="R7">
+        <v>0.01991949701</v>
+      </c>
+      <c r="S7">
+        <v>3.332290007770811E-05</v>
+      </c>
+      <c r="T7">
+        <v>3.978492291283943E-05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.008236666666666666</v>
+      </c>
+      <c r="H8">
+        <v>0.02471</v>
+      </c>
+      <c r="I8">
+        <v>0.003137184800053983</v>
+      </c>
+      <c r="J8">
+        <v>0.003762849422674434</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.1070296666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.321089</v>
+      </c>
+      <c r="O8">
+        <v>0.002820533321653765</v>
+      </c>
+      <c r="P8">
+        <v>0.004211351453895939</v>
+      </c>
+      <c r="Q8">
+        <v>0.0008815676877777779</v>
+      </c>
+      <c r="R8">
+        <v>0.00793410919</v>
+      </c>
+      <c r="S8">
+        <v>8.848534264737964E-06</v>
+      </c>
+      <c r="T8">
+        <v>1.584668138697147E-05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.008236666666666666</v>
+      </c>
+      <c r="H9">
+        <v>0.02471</v>
+      </c>
+      <c r="I9">
+        <v>0.003137184800053983</v>
+      </c>
+      <c r="J9">
+        <v>0.003762849422674434</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.06252866666666666</v>
+      </c>
+      <c r="N9">
+        <v>0.187586</v>
+      </c>
+      <c r="O9">
+        <v>0.001647806569754003</v>
+      </c>
+      <c r="P9">
+        <v>0.002460347672547249</v>
+      </c>
+      <c r="Q9">
+        <v>0.0005150277844444444</v>
+      </c>
+      <c r="R9">
+        <v>0.00463525006</v>
+      </c>
+      <c r="S9">
+        <v>5.169473724061352E-06</v>
+      </c>
+      <c r="T9">
+        <v>9.257917819222804E-06</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.008236666666666666</v>
+      </c>
+      <c r="H10">
+        <v>0.02471</v>
+      </c>
+      <c r="I10">
+        <v>0.003137184800053983</v>
+      </c>
+      <c r="J10">
+        <v>0.003762849422674434</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.1809256666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.542777</v>
+      </c>
+      <c r="O10">
+        <v>0.004767901157396439</v>
+      </c>
+      <c r="P10">
+        <v>0.007118975449458798</v>
+      </c>
+      <c r="Q10">
+        <v>0.001490224407777778</v>
+      </c>
+      <c r="R10">
+        <v>0.01341201967</v>
+      </c>
+      <c r="S10">
+        <v>1.495778703914391E-05</v>
+      </c>
+      <c r="T10">
+        <v>2.678763266002951E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.008236666666666666</v>
+      </c>
+      <c r="H11">
+        <v>0.02471</v>
+      </c>
+      <c r="I11">
+        <v>0.003137184800053983</v>
+      </c>
+      <c r="J11">
+        <v>0.003762849422674434</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>37.1930565</v>
+      </c>
+      <c r="N11">
+        <v>74.38611299999999</v>
+      </c>
+      <c r="O11">
+        <v>0.9801418472049912</v>
+      </c>
+      <c r="P11">
+        <v>0.9756362414539819</v>
+      </c>
+      <c r="Q11">
+        <v>0.306346808705</v>
+      </c>
+      <c r="R11">
+        <v>1.83808085223</v>
+      </c>
+      <c r="S11">
+        <v>0.003074886104948332</v>
+      </c>
+      <c r="T11">
+        <v>0.00367117226789537</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>1.307603</v>
+      </c>
+      <c r="H12">
+        <v>3.922809</v>
+      </c>
+      <c r="I12">
+        <v>0.4980403386610671</v>
+      </c>
+      <c r="J12">
+        <v>0.5973670409110512</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.4030655</v>
+      </c>
+      <c r="N12">
+        <v>0.8061309999999999</v>
+      </c>
+      <c r="O12">
+        <v>0.01062191174620465</v>
+      </c>
+      <c r="P12">
+        <v>0.01057308397011603</v>
+      </c>
+      <c r="Q12">
+        <v>0.5270496569965</v>
+      </c>
+      <c r="R12">
+        <v>3.162297941979</v>
+      </c>
+      <c r="S12">
+        <v>0.005290140523307733</v>
+      </c>
+      <c r="T12">
+        <v>0.006316011884532284</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>1.307603</v>
+      </c>
+      <c r="H13">
+        <v>3.922809</v>
+      </c>
+      <c r="I13">
+        <v>0.4980403386610671</v>
+      </c>
+      <c r="J13">
+        <v>0.5973670409110512</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.1070296666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.321089</v>
+      </c>
+      <c r="O13">
+        <v>0.002820533321653765</v>
+      </c>
+      <c r="P13">
+        <v>0.004211351453895939</v>
+      </c>
+      <c r="Q13">
+        <v>0.1399523132223333</v>
+      </c>
+      <c r="R13">
+        <v>1.259570819001</v>
+      </c>
+      <c r="S13">
+        <v>0.001404739370721265</v>
+      </c>
+      <c r="T13">
+        <v>0.00251572255625027</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>1.307603</v>
+      </c>
+      <c r="H14">
+        <v>3.922809</v>
+      </c>
+      <c r="I14">
+        <v>0.4980403386610671</v>
+      </c>
+      <c r="J14">
+        <v>0.5973670409110512</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.06252866666666666</v>
+      </c>
+      <c r="N14">
+        <v>0.187586</v>
+      </c>
+      <c r="O14">
+        <v>0.001647806569754003</v>
+      </c>
+      <c r="P14">
+        <v>0.002460347672547249</v>
+      </c>
+      <c r="Q14">
+        <v>0.08176267211933333</v>
+      </c>
+      <c r="R14">
+        <v>0.735864049074</v>
+      </c>
+      <c r="S14">
+        <v>0.0008206741420482148</v>
+      </c>
+      <c r="T14">
+        <v>0.001469730608761942</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>1.307603</v>
+      </c>
+      <c r="H15">
+        <v>3.922809</v>
+      </c>
+      <c r="I15">
+        <v>0.4980403386610671</v>
+      </c>
+      <c r="J15">
+        <v>0.5973670409110512</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.1809256666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.542777</v>
+      </c>
+      <c r="O15">
+        <v>0.004767901157396439</v>
+      </c>
+      <c r="P15">
+        <v>0.007118975449458798</v>
+      </c>
+      <c r="Q15">
+        <v>0.2365789445103333</v>
+      </c>
+      <c r="R15">
+        <v>2.129210500593</v>
+      </c>
+      <c r="S15">
+        <v>0.002374607107132216</v>
+      </c>
+      <c r="T15">
+        <v>0.004252641298561623</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>1.307603</v>
+      </c>
+      <c r="H16">
+        <v>3.922809</v>
+      </c>
+      <c r="I16">
+        <v>0.4980403386610671</v>
+      </c>
+      <c r="J16">
+        <v>0.5973670409110512</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>37.1930565</v>
+      </c>
+      <c r="N16">
+        <v>74.38611299999999</v>
+      </c>
+      <c r="O16">
+        <v>0.9801418472049912</v>
+      </c>
+      <c r="P16">
+        <v>0.9756362414539819</v>
+      </c>
+      <c r="Q16">
+        <v>48.6337522585695</v>
+      </c>
+      <c r="R16">
+        <v>291.802513551417</v>
+      </c>
+      <c r="S16">
+        <v>0.4881501775178577</v>
+      </c>
+      <c r="T16">
+        <v>0.582812934562945</v>
       </c>
     </row>
   </sheetData>
